--- a/public/UploadTemplate.xlsx
+++ b/public/UploadTemplate.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="20115" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="390" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="1" r:id="rId1"/>
-    <sheet name="Ledger" sheetId="2" r:id="rId2"/>
-    <sheet name="README UPLOAD POLICY" sheetId="3" r:id="rId3"/>
+    <sheet name="README UPLOAD POLICY" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>CtrlNO</t>
   </si>
@@ -78,12 +77,6 @@
     <t>XXXX</t>
   </si>
   <si>
-    <t>CtrlNo</t>
-  </si>
-  <si>
-    <t>ArNo</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
@@ -105,30 +98,12 @@
     <t>3</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>500.75</t>
-  </si>
-  <si>
     <t>DENIED</t>
   </si>
   <si>
     <t>2357</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>2017-03-0015</t>
-  </si>
-  <si>
-    <t>2017-03-0016</t>
-  </si>
-  <si>
     <t>PAID</t>
   </si>
   <si>
@@ -147,15 +122,9 @@
     <t>DO NOT CHANGE THE NAME OF THE HEADER</t>
   </si>
   <si>
-    <t>DO NOT CHANGE SHEET NAME. LOANS / LEDGER sheet name is only accepted by the system which corresponds to the function of their names.</t>
-  </si>
-  <si>
     <t>VERIFY DATA ENTRIES AND FOLLOW FORMATTING</t>
   </si>
   <si>
-    <t>ALL ARE REQUIRED COLUMNS EXCEPT "Loc" in Loans Sheet</t>
-  </si>
-  <si>
     <t>NO EMPTY ROWS IN BETWEEN RECORDS</t>
   </si>
   <si>
@@ -222,23 +191,42 @@
     <t>INC</t>
   </si>
   <si>
-    <t>Approved but with balance and incomplete deductions</t>
-  </si>
-  <si>
     <t>Denied / disapproved loan applications</t>
   </si>
   <si>
-    <t>Ledger's control number must have a loan record from LOANS SHEET</t>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>1/31/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO NOT CHANGE SHEET NAME. Loans sheet name is the only accepted by the system </t>
+  </si>
+  <si>
+    <t>Required columns are in red fonts</t>
+  </si>
+  <si>
+    <t>Approved but with balance and incomplete deductions. Active accounts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,13 +252,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,8 +619,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -638,44 +628,44 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -692,40 +682,31 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>17</v>
@@ -734,179 +715,33 @@
         <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2453</v>
-      </c>
-      <c r="D2" s="1">
-        <v>34523</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3245</v>
-      </c>
-      <c r="D3" s="1">
-        <v>34523</v>
-      </c>
-      <c r="E3" s="1">
-        <v>34523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1">
-        <v>345</v>
-      </c>
-      <c r="D4" s="1">
-        <v>34523</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +754,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,48 +810,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,22 +852,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,10 +876,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1061,10 +888,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1072,27 +899,27 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1103,7 +930,7 @@
         <v>1000.75</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,10 +938,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1125,18 +952,18 @@
         <v>1000.75</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2">
         <v>1000.75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,85 +974,85 @@
         <v>1000.75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2">
         <v>1000.75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>38</v>
+      <c r="C29" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/public/UploadTemplate.xlsx
+++ b/public/UploadTemplate.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="390" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="390" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="1" r:id="rId1"/>
-    <sheet name="README UPLOAD POLICY" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>CtrlNO</t>
   </si>
@@ -50,9 +49,6 @@
     <t>ApproverEmpID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>EndorserEmpID</t>
   </si>
   <si>
@@ -77,9 +73,6 @@
     <t>XXXX</t>
   </si>
   <si>
-    <t>Balance</t>
-  </si>
-  <si>
     <t>AppDate</t>
   </si>
   <si>
@@ -98,102 +91,15 @@
     <t>3</t>
   </si>
   <si>
-    <t>DENIED</t>
-  </si>
-  <si>
     <t>2357</t>
   </si>
   <si>
-    <t>PAID</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>REAVAILMENT</t>
   </si>
   <si>
-    <t>POLICY ON UPLOADING LOANS AND LEDGER</t>
-  </si>
-  <si>
-    <t>USE THIS TEMPLATE ONLY OR OTHER WITH THE SAME HEADER</t>
-  </si>
-  <si>
-    <t>DO NOT CHANGE THE NAME OF THE HEADER</t>
-  </si>
-  <si>
-    <t>VERIFY DATA ENTRIES AND FOLLOW FORMATTING</t>
-  </si>
-  <si>
-    <t>NO EMPTY ROWS IN BETWEEN RECORDS</t>
-  </si>
-  <si>
-    <t>DO NOT MERGE COLUMNS AND ROWS</t>
-  </si>
-  <si>
-    <t>FORMATTING AND ACCEPTED ENTRIES</t>
-  </si>
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>FORMAT</t>
-  </si>
-  <si>
-    <t>Dates</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>m/d/YYYY</t>
-  </si>
-  <si>
-    <t>3/31/2018</t>
-  </si>
-  <si>
-    <t>3/31/2019</t>
-  </si>
-  <si>
-    <t>3/31/2020</t>
-  </si>
-  <si>
-    <t>3/31/2021</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>1-12</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>no currency sign</t>
-  </si>
-  <si>
-    <t>1-100</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>Complete Loan Transaction with no balance</t>
-  </si>
-  <si>
     <t>INC</t>
   </si>
   <si>
-    <t>Denied / disapproved loan applications</t>
-  </si>
-  <si>
     <t>11000</t>
   </si>
   <si>
@@ -201,15 +107,6 @@
   </si>
   <si>
     <t>1/31/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO NOT CHANGE SHEET NAME. Loans sheet name is the only accepted by the system </t>
-  </si>
-  <si>
-    <t>Required columns are in red fonts</t>
-  </si>
-  <si>
-    <t>Approved but with balance and incomplete deductions. Active accounts</t>
   </si>
 </sst>
 </file>
@@ -252,15 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -619,8 +512,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
+      <c r="A1" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -628,434 +521,110 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1000.75</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1000.75</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1000.75</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1000.75</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1000.75</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>